--- a/csv_files/2d_3z/target_vs_output.xlsx
+++ b/csv_files/2d_3z/target_vs_output.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\2d_3z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EA3E8-6A2A-4D61-898B-61EB91F9DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,7 +177,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,12 +194,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,9 +216,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -248,7 +256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,58 +322,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1244460726586492E-4</c:v>
+                    <c:v>1.2463264092788362E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8629353129177395E-3</c:v>
+                    <c:v>3.8457460925424701E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.9273235348273708E-3</c:v>
+                    <c:v>0.13561756220720031</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.5653889094963343E-2</c:v>
+                    <c:v>0.23521176981098146</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.0758180372123385E-2</c:v>
+                    <c:v>0.29132256368558368</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.1746701679216739E-2</c:v>
+                    <c:v>0.29581479959822438</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.007841238324673E-2</c:v>
+                    <c:v>0.25773864321208056</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6381151097666843E-2</c:v>
+                    <c:v>0.20114423959498051</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9890894730533477E-2</c:v>
+                    <c:v>0.1403216746523879</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3238813899758266E-2</c:v>
+                    <c:v>9.0318019833114965E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.3131053179320421E-3</c:v>
+                    <c:v>5.1753657822415512E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.5214412384171334E-3</c:v>
+                    <c:v>2.6303455185740964E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.7927447601992957E-3</c:v>
+                    <c:v>1.3164206333305768E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>3.828622859624166E-3</c:v>
+                    <c:v>5.2271645297753098E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.6446932080121067E-3</c:v>
+                    <c:v>1.6435268823217805E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>8.7038140595490949E-4</c:v>
+                    <c:v>3.519515564849551E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.1244460726586492E-4</c:v>
+                    <c:v>1.5185723675949258E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>5.153999374622687E-5</c:v>
+                    <c:v>1.7965218369849395E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -381,61 +388,61 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1244460726586492E-4</c:v>
+                    <c:v>1.2463264092788362E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.8629353129177395E-3</c:v>
+                    <c:v>3.8457460925424701E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.9273235348273708E-3</c:v>
+                    <c:v>0.13561756220720031</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.5653889094963343E-2</c:v>
+                    <c:v>0.23521176981098146</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.0758180372123385E-2</c:v>
+                    <c:v>0.29132256368558368</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.1746701679216739E-2</c:v>
+                    <c:v>0.29581479959822438</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.007841238324673E-2</c:v>
+                    <c:v>0.25773864321208056</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6381151097666843E-2</c:v>
+                    <c:v>0.20114423959498051</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.9890894730533477E-2</c:v>
+                    <c:v>0.1403216746523879</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3238813899758266E-2</c:v>
+                    <c:v>9.0318019833114965E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.3131053179320421E-3</c:v>
+                    <c:v>5.1753657822415512E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.5214412384171334E-3</c:v>
+                    <c:v>2.6303455185740964E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.7927447601992957E-3</c:v>
+                    <c:v>1.3164206333305768E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>3.828622859624166E-3</c:v>
+                    <c:v>5.2271645297753098E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.6446932080121067E-3</c:v>
+                    <c:v>1.6435268823217805E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>8.7038140595490949E-4</c:v>
+                    <c:v>3.519515564849551E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.1244460726586492E-4</c:v>
+                    <c:v>1.5185723675949258E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>5.153999374622687E-5</c:v>
+                    <c:v>1.7965218369849395E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0</c:v>
+                    <c:v>1.8963286057063251E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -464,66 +471,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6629213483146067</c:v>
+                  <c:v>0.56292134831460672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.183520599250937</c:v>
+                  <c:v>17.304494382022472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.00561797752809</c:v>
+                  <c:v>60.907865168539331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.69662921348313</c:v>
+                  <c:v>105.64044943820225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.31273408239701</c:v>
+                  <c:v>130.80898876404495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.62921348314606</c:v>
+                  <c:v>133.02696629213483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.45318352059925</c:v>
+                  <c:v>115.75280898876404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119.76029962546816</c:v>
+                  <c:v>90.317977528089884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.844569288389522</c:v>
+                  <c:v>62.806741573033712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.084269662921351</c:v>
+                  <c:v>40.244943820224719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.297752808988761</c:v>
+                  <c:v>22.742696629213484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.071161048689138</c:v>
+                  <c:v>11.439325842696629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9138576779026213</c:v>
+                  <c:v>5.6011235955056176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8689138576779025</c:v>
+                  <c:v>2.2606741573033706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.404494382022472</c:v>
+                  <c:v>0.71011235955056184</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46629213483146065</c:v>
+                  <c:v>0.1865168539325843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3033707865168537E-2</c:v>
+                  <c:v>4.1573033707865172E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4906367041198494E-3</c:v>
+                  <c:v>2.0224719101123598E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.134831460674157E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -556,64 +563,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>5.1199791120111644E-4</c:v>
+                    <c:v>2.0501021030558471E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1019545250162884E-4</c:v>
+                    <c:v>9.5815820011673836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.8799733330394513E-3</c:v>
+                    <c:v>3.6291097199800587E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3143122892889733E-2</c:v>
+                    <c:v>0.12663850809296093</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.3641362980851047E-2</c:v>
+                    <c:v>0.22712352272691824</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.1663895007688632E-2</c:v>
+                    <c:v>0.28640159078475541</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.6593660644701905E-2</c:v>
+                    <c:v>0.29940452140730633</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.9550604492220805E-3</c:v>
+                    <c:v>0.26531189288068108</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.936342987536326E-3</c:v>
+                    <c:v>0.21194988933086659</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.6548425733074246E-2</c:v>
+                    <c:v>0.15300958074728896</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.6413553828912381E-2</c:v>
+                    <c:v>9.7428475773204265E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.2103866131137495E-2</c:v>
+                    <c:v>5.7419393363267242E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.1514759066211333E-3</c:v>
+                    <c:v>3.0500794314217951E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>5.8575602936406556E-3</c:v>
+                    <c:v>1.5282276112768433E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.4815834626448793E-3</c:v>
+                    <c:v>8.2253032189450216E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>8.6507027230960229E-4</c:v>
+                    <c:v>2.4991339623161176E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>5.2701043907830492E-4</c:v>
+                    <c:v>1.791192836132313E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.511594874611967E-4</c:v>
+                    <c:v>1.1886306991900249E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.0671478949324333E-3</c:v>
+                    <c:v>5.8045493342151673E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.698447781827636E-4</c:v>
+                    <c:v>6.4435979045532788E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -625,64 +632,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>5.1199791120111644E-4</c:v>
+                    <c:v>2.0501021030558471E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1019545250162884E-4</c:v>
+                    <c:v>9.5815820011673836E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.8799733330394513E-3</c:v>
+                    <c:v>3.6291097199800587E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3143122892889733E-2</c:v>
+                    <c:v>0.12663850809296093</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.3641362980851047E-2</c:v>
+                    <c:v>0.22712352272691824</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.1663895007688632E-2</c:v>
+                    <c:v>0.28640159078475541</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.6593660644701905E-2</c:v>
+                    <c:v>0.29940452140730633</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.9550604492220805E-3</c:v>
+                    <c:v>0.26531189288068108</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.936342987536326E-3</c:v>
+                    <c:v>0.21194988933086659</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.6548425733074246E-2</c:v>
+                    <c:v>0.15300958074728896</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.6413553828912381E-2</c:v>
+                    <c:v>9.7428475773204265E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.2103866131137495E-2</c:v>
+                    <c:v>5.7419393363267242E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9.1514759066211333E-3</c:v>
+                    <c:v>3.0500794314217951E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>5.8575602936406556E-3</c:v>
+                    <c:v>1.5282276112768433E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.4815834626448793E-3</c:v>
+                    <c:v>8.2253032189450216E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>8.6507027230960229E-4</c:v>
+                    <c:v>2.4991339623161176E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>5.2701043907830492E-4</c:v>
+                    <c:v>1.791192836132313E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.511594874611967E-4</c:v>
+                    <c:v>1.1886306991900249E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.0671478949324333E-3</c:v>
+                    <c:v>5.8045493342151673E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.698447781827636E-4</c:v>
+                    <c:v>6.4435979045532788E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -708,69 +715,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.6933286035370603E-2</c:v>
+                  <c:v>0.23567771249440253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69763742815633223</c:v>
+                  <c:v>0.35803163077975142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.881727020838706</c:v>
+                  <c:v>16.097151365440855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.333924575691015</c:v>
+                  <c:v>56.819289250319997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.27015647816702</c:v>
+                  <c:v>101.89253084632765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.06776874699383</c:v>
+                  <c:v>128.70103003041021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.51219085807622</c:v>
+                  <c:v>134.54466112329686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.65011938859269</c:v>
+                  <c:v>119.05759529799528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122.10582636580244</c:v>
+                  <c:v>95.091617085960223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.762068787121919</c:v>
+                  <c:v>68.651374273085509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.417855545348054</c:v>
+                  <c:v>42.224280342827825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.429034495119275</c:v>
+                  <c:v>24.281375595031481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.371966402035881</c:v>
+                  <c:v>11.615655124865528</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5406326034388584</c:v>
+                  <c:v>6.3107501493327298</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3237720569072455</c:v>
+                  <c:v>2.0068393781027742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4379657370627772</c:v>
+                  <c:v>0.93201223443565506</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57105822803989437</c:v>
+                  <c:v>-0.11212440863816621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8124653440673214E-2</c:v>
+                  <c:v>0.159681782775213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7774078093943464E-2</c:v>
+                  <c:v>8.8402301698839322E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.17218940335322397</c:v>
+                  <c:v>0.15112104583740898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -836,7 +843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -957,7 +963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1077,7 +1082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1109,14 +1113,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1727,7 +1731,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,20 +2048,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,16 +2082,21 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2101,29 +2110,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="L3" s="1">
-        <f>SUM(B3:K3)/178</f>
+        <f>SUM(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>AVERAGE(B3:K3)/178</f>
+        <f>AVERAGE(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>STDEV(B3:K3)/178</f>
+        <f>STDEV(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="O3">
@@ -2131,577 +2143,634 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>132</v>
-      </c>
-      <c r="C4">
-        <v>118</v>
-      </c>
-      <c r="D4">
-        <v>104</v>
+      <c r="B4" s="1">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1">
+        <v>115</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)/178</f>
-        <v>1.9887640449438202</v>
+        <f>SUM(A4:K4)/178</f>
+        <v>2.8146067415730336</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)/178</f>
-        <v>0.6629213483146067</v>
+        <f>AVERAGE(A4:K4)/178</f>
+        <v>0.56292134831460672</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)/178</f>
-        <v>7.8651685393258425E-2</v>
+        <f>STDEV(A4:K4)/178</f>
+        <v>0.31373776458396863</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O22" si="3">N4/SQRT(2)/178</f>
-        <v>3.1244460726586492E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <f t="shared" ref="O4:O22" si="0">N4/SQRT(2)/178</f>
+        <v>1.2463264092788362E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3787</v>
-      </c>
-      <c r="C5">
-        <v>3890</v>
-      </c>
-      <c r="D5">
-        <v>3635</v>
+      <c r="B5" s="1">
+        <v>3998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3834</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3819</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3748</v>
       </c>
       <c r="L5" s="1">
+        <f>SUM(A5:K5)/178</f>
+        <v>86.522471910112358</v>
+      </c>
+      <c r="M5" s="1">
+        <f>AVERAGE(A5:K5)/178</f>
+        <v>17.304494382022472</v>
+      </c>
+      <c r="N5" s="1">
+        <f>STDEV(A5:K5)/178</f>
+        <v>9.680897181100077</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="0"/>
-        <v>63.550561797752806</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>21.183520599250937</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.72068674669507282</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>2.8629353129177395E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>3.8457460925424701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>13437</v>
-      </c>
-      <c r="C6">
-        <v>13967</v>
-      </c>
-      <c r="D6">
-        <v>13183</v>
+      <c r="B6" s="1">
+        <v>14035</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13759</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13622</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12789</v>
       </c>
       <c r="L6" s="1">
+        <f>SUM(A6:K6)/178</f>
+        <v>304.53932584269666</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(A6:K6)/178</f>
+        <v>60.907865168539331</v>
+      </c>
+      <c r="N6" s="1">
+        <f>STDEV(A6:K6)/178</f>
+        <v>34.139010846953127</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="0"/>
-        <v>228.01685393258427</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>76.00561797752809</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2472752793188793</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>8.9273235348273708E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+        <v>0.13561756220720031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>23326</v>
-      </c>
-      <c r="C7">
-        <v>24604</v>
-      </c>
-      <c r="D7">
-        <v>23464</v>
+      <c r="B7" s="1">
+        <v>24508</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23599</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23622</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22287</v>
       </c>
       <c r="L7" s="1">
+        <f>SUM(A7:K7)/178</f>
+        <v>528.20224719101122</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(A7:K7)/178</f>
+        <v>105.64044943820225</v>
+      </c>
+      <c r="N7" s="1">
+        <f>STDEV(A7:K7)/178</f>
+        <v>59.209862131571398</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
-        <v>401.08988764044943</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>133.69662921348313</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9405537226326994</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>1.5653889094963343E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+        <v>0.23521176981098146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>28890</v>
-      </c>
-      <c r="C8">
-        <v>30746</v>
-      </c>
-      <c r="D8">
-        <v>29709</v>
+      <c r="B8" s="1">
+        <v>30437</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29381</v>
+      </c>
+      <c r="D8" s="1">
+        <v>29020</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27577</v>
       </c>
       <c r="L8" s="1">
+        <f>SUM(A8:K8)/178</f>
+        <v>654.04494382022472</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(A8:K8)/178</f>
+        <v>130.80898876404495</v>
+      </c>
+      <c r="N8" s="1">
+        <f>STDEV(A8:K8)/178</f>
+        <v>73.334633064922485</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>501.93820224719099</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>167.31273408239701</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2254570378150094</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>2.0758180372123385E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+        <v>0.29132256368558368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>29656</v>
-      </c>
-      <c r="C9">
-        <v>31560</v>
-      </c>
-      <c r="D9">
-        <v>30968</v>
+      <c r="B9" s="1">
+        <v>30719</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29601</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29464</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28604</v>
       </c>
       <c r="L9" s="1">
+        <f>SUM(A9:K9)/178</f>
+        <v>665.13483146067415</v>
+      </c>
+      <c r="M9" s="1">
+        <f>AVERAGE(A9:K9)/178</f>
+        <v>133.02696629213483</v>
+      </c>
+      <c r="N9" s="1">
+        <f>STDEV(A9:K9)/178</f>
+        <v>74.465463674562884</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="0"/>
-        <v>517.88764044943821</v>
-      </c>
-      <c r="M9" s="1">
-        <f>AVERAGE(B9:K9)/178</f>
-        <v>172.62921348314606</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4742975203901532</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>2.1746701679216739E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+        <v>0.29581479959822438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>26049</v>
-      </c>
-      <c r="C10">
-        <v>27848</v>
-      </c>
-      <c r="D10">
-        <v>26979</v>
+      <c r="B10" s="1">
+        <v>27094</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25926</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25332</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24661</v>
       </c>
       <c r="L10" s="1">
+        <f>SUM(A10:K10)/178</f>
+        <v>578.76404494382018</v>
+      </c>
+      <c r="M10" s="1">
+        <f>AVERAGE(A10:K10)/178</f>
+        <v>115.75280898876404</v>
+      </c>
+      <c r="N10" s="1">
+        <f>STDEV(A10:K10)/178</f>
+        <v>64.880552290513293</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="0"/>
-        <v>454.35955056179773</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>151.45318352059925</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="2"/>
-        <v>5.0543390323887216</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>2.007841238324673E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+        <v>0.25773864321208056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>20478</v>
-      </c>
-      <c r="C11">
-        <v>21839</v>
-      </c>
-      <c r="D11">
-        <v>21635</v>
+      <c r="B11" s="1">
+        <v>21314</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19874</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19330</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19857</v>
       </c>
       <c r="L11" s="1">
+        <f>SUM(A11:K11)/178</f>
+        <v>451.58988764044943</v>
+      </c>
+      <c r="M11" s="1">
+        <f>AVERAGE(A11:K11)/178</f>
+        <v>90.317977528089884</v>
+      </c>
+      <c r="N11" s="1">
+        <f>STDEV(A11:K11)/178</f>
+        <v>50.634042269863173</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
-        <v>359.28089887640448</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>119.76029962546816</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1236273968293986</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1.6381151097666843E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+        <v>0.20114423959498051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>14252</v>
-      </c>
-      <c r="C12">
-        <v>15759</v>
-      </c>
-      <c r="D12">
-        <v>15830</v>
+      <c r="B12" s="1">
+        <v>14988</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14119</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12930</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13852</v>
       </c>
       <c r="L12" s="1">
+        <f>SUM(A12:K12)/178</f>
+        <v>314.03370786516854</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(A12:K12)/178</f>
+        <v>62.806741573033712</v>
+      </c>
+      <c r="N12" s="1">
+        <f>STDEV(A12:K12)/178</f>
+        <v>35.323177139119529</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
-        <v>257.53370786516854</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>85.844569288389522</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="2"/>
-        <v>5.0071352110267631</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>1.9890894730533477E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+        <v>0.1403216746523879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>9510</v>
-      </c>
-      <c r="C13">
-        <v>10302</v>
-      </c>
-      <c r="D13">
-        <v>10671</v>
+      <c r="B13" s="1">
+        <v>9718</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9050</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7984</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9056</v>
       </c>
       <c r="L13" s="1">
+        <f>SUM(A13:K13)/178</f>
+        <v>201.22471910112358</v>
+      </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(A13:K13)/178</f>
+        <v>40.244943820224719</v>
+      </c>
+      <c r="N13" s="1">
+        <f>STDEV(A13:K13)/178</f>
+        <v>22.735756406291863</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="0"/>
-        <v>171.25280898876406</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>57.084269662921351</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3326068096853425</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1.3238813899758266E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+        <v>9.0318019833114965E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>5846</v>
-      </c>
-      <c r="C14">
-        <v>5740</v>
-      </c>
-      <c r="D14">
-        <v>6195</v>
+      <c r="B14" s="1">
+        <v>5726</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5047</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4242</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5215</v>
       </c>
       <c r="L14" s="1">
+        <f>SUM(A14:K14)/178</f>
+        <v>113.71348314606742</v>
+      </c>
+      <c r="M14" s="1">
+        <f>AVERAGE(A14:K14)/178</f>
+        <v>22.742696629213484</v>
+      </c>
+      <c r="N14" s="1">
+        <f>STDEV(A14:K14)/178</f>
+        <v>13.027949013488007</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="0"/>
-        <v>99.893258426966298</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>33.297752808988761</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3374680766106275</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>5.3131053179320421E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
+        <v>5.1753657822415512E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>3398</v>
-      </c>
-      <c r="C15">
-        <v>2998</v>
-      </c>
-      <c r="D15">
-        <v>3254</v>
+      <c r="B15" s="1">
+        <v>2985</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2553</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2055</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2576</v>
       </c>
       <c r="L15" s="1">
+        <f>SUM(A15:K15)/178</f>
+        <v>57.196629213483149</v>
+      </c>
+      <c r="M15" s="1">
+        <f>AVERAGE(A15:K15)/178</f>
+        <v>11.439325842696629</v>
+      </c>
+      <c r="N15" s="1">
+        <f>STDEV(A15:K15)/178</f>
+        <v>6.6213691448487078</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="0"/>
-        <v>54.213483146067418</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>18.071161048689138</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1381824667099674</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>4.5214412384171334E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+        <v>2.6303455185740964E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>1766</v>
-      </c>
-      <c r="C16">
-        <v>1428</v>
-      </c>
-      <c r="D16">
-        <v>1566</v>
+      <c r="B16" s="1">
+        <v>1569</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1177</v>
+      </c>
+      <c r="D16" s="1">
+        <v>977</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1249</v>
       </c>
       <c r="L16" s="1">
+        <f>SUM(A16:K16)/178</f>
+        <v>28.00561797752809</v>
+      </c>
+      <c r="M16" s="1">
+        <f>AVERAGE(A16:K16)/178</f>
+        <v>5.6011235955056176</v>
+      </c>
+      <c r="N16" s="1">
+        <f>STDEV(A16:K16)/178</f>
+        <v>3.3138258459301082</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="0"/>
-        <v>26.741573033707866</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9138576779026213</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.95474769197181397</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>3.7927447601992957E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+        <v>1.3164206333305768E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>886</v>
-      </c>
-      <c r="C17">
-        <v>575</v>
-      </c>
-      <c r="D17">
-        <v>605</v>
+      <c r="B17" s="1">
+        <v>644</v>
+      </c>
+      <c r="C17" s="1">
+        <v>425</v>
+      </c>
+      <c r="D17" s="1">
+        <v>433</v>
+      </c>
+      <c r="E17" s="1">
+        <v>496</v>
       </c>
       <c r="L17" s="1">
+        <f>SUM(A17:K17)/178</f>
+        <v>11.303370786516854</v>
+      </c>
+      <c r="M17" s="1">
+        <f>AVERAGE(A17:K17)/178</f>
+        <v>2.2606741573033706</v>
+      </c>
+      <c r="N17" s="1">
+        <f>STDEV(A17:K17)/178</f>
+        <v>1.3158342007959609</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="0"/>
-        <v>11.606741573033707</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8689138576779025</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.96377928644600408</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>3.828622859624166E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>5.2271645297753098E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>335</v>
-      </c>
-      <c r="C18">
-        <v>204</v>
-      </c>
-      <c r="D18">
-        <v>211</v>
+      <c r="B18" s="1">
+        <v>209</v>
+      </c>
+      <c r="C18" s="1">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1">
+        <v>138</v>
+      </c>
+      <c r="E18" s="1">
+        <v>168</v>
       </c>
       <c r="L18" s="1">
+        <f>SUM(A18:K18)/178</f>
+        <v>3.5505617977528088</v>
+      </c>
+      <c r="M18" s="1">
+        <f>AVERAGE(A18:K18)/178</f>
+        <v>0.71011235955056184</v>
+      </c>
+      <c r="N18" s="1">
+        <f>STDEV(A18:K18)/178</f>
+        <v>0.41372504526455328</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="0"/>
-        <v>4.213483146067416</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.404494382022472</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41401864444702707</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>1.6446932080121067E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+        <v>1.6435268823217805E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>128</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
         <v>59</v>
       </c>
-      <c r="D19">
-        <v>62</v>
+      <c r="C19" s="1">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31</v>
       </c>
       <c r="L19" s="1">
+        <f>SUM(A19:K19)/178</f>
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="M19" s="1">
+        <f>AVERAGE(A19:K19)/178</f>
+        <v>0.1865168539325843</v>
+      </c>
+      <c r="N19" s="1">
+        <f>STDEV(A19:K19)/178</f>
+        <v>8.8596770277323225E-2</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="0"/>
-        <v>1.398876404494382</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.46629213483146065</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21910112359550563</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>8.7038140595490949E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+        <v>3.519515564849551E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>29</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
       <c r="L20" s="1">
+        <f>SUM(A20:K20)/178</f>
+        <v>0.20786516853932585</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AVERAGE(A20:K20)/178</f>
+        <v>4.1573033707865172E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>STDEV(A20:K20)/178</f>
+        <v>3.8227024351020225E-2</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="0"/>
-        <v>0.21910112359550563</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8651685393258425E-2</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>3.1244460726586492E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+        <v>1.5185723675949258E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="1">
         <v>0</v>
       </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="L21" s="1">
+        <f>SUM(A21:K21)/178</f>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="M21" s="1">
+        <f>AVERAGE(A21:K21)/178</f>
+        <v>2.0224719101123598E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f>STDEV(A21:K21)/178</f>
+        <v>4.5223846735950798E-2</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4906367041198494E-3</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2974163352575861E-2</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>5.153999374622687E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+        <v>1.7965218369849395E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="L22" s="1">
+        <f>SUM(A22:K22)/178</f>
+        <v>0.10674157303370786</v>
+      </c>
+      <c r="M22" s="1">
+        <f>AVERAGE(A22:K22)/178</f>
+        <v>2.134831460674157E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f>STDEV(A22:K22)/178</f>
+        <v>4.7736282665725847E-2</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.8963286057063251E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2722,16 +2791,21 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="L26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2745,689 +2819,749 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>-1.2241428121924001</v>
-      </c>
-      <c r="C27">
-        <v>10.054554852657001</v>
-      </c>
-      <c r="D27">
-        <v>42.931962702423299</v>
+      <c r="B27" s="1">
+        <v>43.479588720947497</v>
+      </c>
+      <c r="C27" s="1">
+        <v>200.149924844503</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-20.724711269140201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-13.151638176292099</v>
       </c>
       <c r="L27" s="1">
-        <f>SUM(B27:K27)/178</f>
-        <v>0.29079985810611181</v>
+        <f>SUM(A27:K27)/178</f>
+        <v>1.1783885624720125</v>
       </c>
       <c r="M27" s="1">
-        <f>AVERAGE(B27:K27)/178</f>
-        <v>9.6933286035370603E-2</v>
+        <f>AVERAGE(A27:K27)/178</f>
+        <v>0.23567771249440253</v>
       </c>
       <c r="N27" s="1">
-        <f>STDEV(B27:K27)/178</f>
-        <v>0.12888524140706198</v>
+        <f>STDEV(A27:K27)/178</f>
+        <v>0.51607223131363067</v>
       </c>
       <c r="O27">
         <f>N27/SQRT(2)/178</f>
-        <v>5.1199791120111644E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
+        <v>2.0501021030558471E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28">
-        <v>94.827825531363402</v>
-      </c>
-      <c r="C28">
-        <v>128.78431687503999</v>
-      </c>
-      <c r="D28">
-        <v>148.92624422907801</v>
+      <c r="B28" s="1">
+        <v>100.66623303294099</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39.867931466549599</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100.208339460194</v>
+      </c>
+      <c r="E28" s="1">
+        <v>76.905647434294195</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)/178</f>
-        <v>2.0929122844689965</v>
+        <f>SUM(A28:K28)/178</f>
+        <v>1.7901581538987572</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)/178</f>
-        <v>0.69763742815633223</v>
+        <f>AVERAGE(A28:K28)/178</f>
+        <v>0.35803163077975142</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)/178</f>
-        <v>0.15360450986346205</v>
+        <f>STDEV(A28:K28)/178</f>
+        <v>0.24119717722772724</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O46" si="7">N28/SQRT(2)/178</f>
-        <v>6.1019545250162884E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
+        <f t="shared" ref="O28:O46" si="1">N28/SQRT(2)/178</f>
+        <v>9.5815820011673836E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>3267.8056991100302</v>
-      </c>
-      <c r="C29">
-        <v>4025.3210010528501</v>
-      </c>
-      <c r="D29">
-        <v>3857.71552896499</v>
+      <c r="B29" s="1">
+        <v>3669.1594705581601</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3493.0531041622098</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3977.1200342178299</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3185.1321063041601</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="4"/>
-        <v>62.645181062516123</v>
+        <f>SUM(A29:K29)/178</f>
+        <v>80.485756827204256</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="5"/>
-        <v>20.881727020838706</v>
+        <f>AVERAGE(A29:K29)/178</f>
+        <v>16.097151365440855</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="6"/>
-        <v>2.2353558123550541</v>
+        <f>STDEV(A29:K29)/178</f>
+        <v>9.1355584098977687</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
-        <v>8.8799733330394513E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>3.6291097199800587E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30">
-        <v>12103.667820930399</v>
-      </c>
-      <c r="C30">
-        <v>14143.835025787301</v>
-      </c>
-      <c r="D30">
-        <v>13446.8128767013</v>
+      <c r="B30" s="1">
+        <v>12921.211288452099</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12887.7221632003</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12983.7985324859</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11773.4354486465</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>223.00177372707304</v>
+        <f>SUM(A30:K30)/178</f>
+        <v>284.09644625160001</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="5"/>
-        <v>74.333924575691015</v>
+        <f>AVERAGE(A30:K30)/178</f>
+        <v>56.819289250319997</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="6"/>
-        <v>5.8258186522009625</v>
+        <f>STDEV(A30:K30)/178</f>
+        <v>31.878713428149336</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
-        <v>2.3143122892889733E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.12663850809296093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31">
-        <v>21852.721246719299</v>
-      </c>
-      <c r="C31">
-        <v>24745.741367340001</v>
-      </c>
-      <c r="D31">
-        <v>24033.800945281899</v>
+      <c r="B31" s="1">
+        <v>23450.122264861999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>23370.628528594902</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22665.9213466644</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21193.680313110301</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="4"/>
-        <v>396.8104694345011</v>
+        <f>SUM(A31:K31)/178</f>
+        <v>509.46265423163823</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="5"/>
-        <v>132.27015647816702</v>
+        <f>AVERAGE(A31:K31)/178</f>
+        <v>101.89253084632765</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="6"/>
-        <v>8.4685407775939598</v>
+        <f>STDEV(A31:K31)/178</f>
+        <v>57.173807579036378</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
-        <v>3.3641362980851047E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.22712352272691824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>28201.684280395501</v>
-      </c>
-      <c r="C32">
-        <v>30998.829090118401</v>
-      </c>
-      <c r="D32">
-        <v>30013.675140380801</v>
+      <c r="B32" s="1">
+        <v>29572.018321990901</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29024.586629867499</v>
+      </c>
+      <c r="D32" s="1">
+        <v>28716.159290313699</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27226.152484892998</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="4"/>
-        <v>501.20330624098148</v>
+        <f>SUM(A32:K32)/178</f>
+        <v>643.5051501520511</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>167.06776874699383</v>
+        <f>AVERAGE(A32:K32)/178</f>
+        <v>128.70103003041021</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="6"/>
-        <v>7.9707527368227185</v>
+        <f>STDEV(A32:K32)/178</f>
+        <v>72.095876487199405</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
-        <v>3.1663895007688632E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.28640159078475541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>6</v>
       </c>
-      <c r="B33">
-        <v>29697.622030258099</v>
-      </c>
-      <c r="C33">
-        <v>32080.7953987121</v>
-      </c>
-      <c r="D33">
-        <v>30877.092489242499</v>
+      <c r="B33" s="1">
+        <v>31134.900142669601</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29907.3859996795</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30127.307937622001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>28569.1543197631</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="4"/>
-        <v>520.53657257422867</v>
+        <f>SUM(A33:K33)/178</f>
+        <v>672.72330561648425</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>173.51219085807622</v>
+        <f>AVERAGE(A33:K33)/178</f>
+        <v>134.54466112329686</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="6"/>
-        <v>6.6944225691255408</v>
+        <f>STDEV(A33:K33)/178</f>
+        <v>75.369104396186827</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
-        <v>2.6593660644701905E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.29940452140730633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>7</v>
       </c>
-      <c r="B34">
-        <v>26891.575998306202</v>
-      </c>
-      <c r="C34">
-        <v>27638.669119834001</v>
-      </c>
-      <c r="D34">
-        <v>27518.9186353683</v>
+      <c r="B34" s="1">
+        <v>27937.456813812201</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26827.897212982101</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25107.700490951502</v>
+      </c>
+      <c r="E34" s="1">
+        <v>26081.205297469998</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="4"/>
-        <v>460.95035816577808</v>
+        <f>SUM(A34:K34)/178</f>
+        <v>595.28797648997647</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="5"/>
-        <v>153.65011938859269</v>
+        <f>AVERAGE(A34:K34)/178</f>
+        <v>119.05759529799528</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="6"/>
-        <v>2.2542574931706167</v>
+        <f>STDEV(A34:K34)/178</f>
+        <v>66.786966536391191</v>
       </c>
       <c r="O34">
-        <f t="shared" si="7"/>
-        <v>8.9550604492220805E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.26531189288068108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>8</v>
       </c>
-      <c r="B35">
-        <v>22144.438531875599</v>
-      </c>
-      <c r="C35">
-        <v>21555.122661232901</v>
-      </c>
-      <c r="D35">
-        <v>21504.950086230001</v>
+      <c r="B35" s="1">
+        <v>22411.266977310101</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20866.937360763499</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20016.138909339901</v>
+      </c>
+      <c r="E35" s="1">
+        <v>21329.195959091099</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="4"/>
-        <v>366.31747909740733</v>
+        <f>SUM(A35:K35)/178</f>
+        <v>475.45808542980114</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="5"/>
-        <v>122.10582636580244</v>
+        <f>AVERAGE(A35:K35)/178</f>
+        <v>95.091617085960223</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9978157321740893</v>
+        <f>STDEV(A35:K35)/178</f>
+        <v>53.354148630263481</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
-        <v>7.936342987536326E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.21194988933086659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>9</v>
       </c>
-      <c r="B36">
-        <v>16476.522851943901</v>
-      </c>
-      <c r="C36">
-        <v>15152.7905161082</v>
-      </c>
-      <c r="D36">
-        <v>15235.631364270999</v>
+      <c r="B36" s="1">
+        <v>16132.299694061199</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14791.854030132199</v>
+      </c>
+      <c r="D36" s="1">
+        <v>14537.6001853942</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15628.969193458501</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="4"/>
-        <v>263.28620636136571</v>
+        <f>SUM(A36:K36)/178</f>
+        <v>343.25687136542751</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="5"/>
-        <v>87.762068787121919</v>
+        <f>AVERAGE(A36:K36)/178</f>
+        <v>68.651374273085509</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="6"/>
-        <v>4.1657354431594795</v>
+        <f>STDEV(A36:K36)/178</f>
+        <v>38.517103919319034</v>
       </c>
       <c r="O36">
-        <f t="shared" si="7"/>
-        <v>1.6548425733074246E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.15300958074728896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>10</v>
       </c>
-      <c r="B37">
-        <v>11054.608562469401</v>
-      </c>
-      <c r="C37">
-        <v>9665.6305503100102</v>
-      </c>
-      <c r="D37">
-        <v>9940.8957484364491</v>
+      <c r="B37" s="1">
+        <v>10494.1695368289</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8809.7396091222708</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7697.3905428051903</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10568.309816360401</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="4"/>
-        <v>172.25356663604416</v>
+        <f>SUM(A37:K37)/178</f>
+        <v>211.12140171413913</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="5"/>
-        <v>57.417855545348054</v>
+        <f>AVERAGE(A37:K37)/178</f>
+        <v>42.224280342827825</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="6"/>
-        <v>4.1317841368227946</v>
+        <f>STDEV(A37:K37)/178</f>
+        <v>24.52567158036511</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
-        <v>1.6413553828912381E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>9.7428475773204265E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>11</v>
       </c>
-      <c r="B38">
-        <v>6575.2597599029496</v>
-      </c>
-      <c r="C38">
-        <v>5673.6385985016796</v>
-      </c>
-      <c r="D38">
-        <v>5602.2060619890599</v>
+      <c r="B38" s="1">
+        <v>5782.6406542658797</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5613.8485453128797</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3902.3180498555298</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6300.6170301437296</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="4"/>
-        <v>100.28710348535782</v>
+        <f>SUM(A38:K38)/178</f>
+        <v>121.40687797515741</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="5"/>
-        <v>33.429034495119275</v>
+        <f>AVERAGE(A38:K38)/178</f>
+        <v>24.281375595031481</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0469063918849355</v>
+        <f>STDEV(A38:K38)/178</f>
+        <v>14.454184701087144</v>
       </c>
       <c r="O38">
-        <f t="shared" si="7"/>
-        <v>1.2103866131137495E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>5.7419393363267242E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>12</v>
       </c>
-      <c r="B39">
-        <v>3441.0310006141599</v>
-      </c>
-      <c r="C39">
-        <v>2640.5069632977202</v>
-      </c>
-      <c r="D39">
-        <v>3195.0920947752802</v>
+      <c r="B39" s="1">
+        <v>3002.9420705512098</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2200.7230914831098</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1595.2137072682301</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3527.05419182777</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="4"/>
-        <v>52.115899206107642</v>
+        <f>SUM(A39:K39)/178</f>
+        <v>58.078275624327638</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="5"/>
-        <v>17.371966402035881</v>
+        <f>AVERAGE(A39:K39)/178</f>
+        <v>11.615655124865528</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="6"/>
-        <v>2.3037011590316121</v>
+        <f>STDEV(A39:K39)/178</f>
+        <v>7.6779653828528209</v>
       </c>
       <c r="O39">
-        <f t="shared" si="7"/>
-        <v>9.1514759066211333E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>3.0500794314217951E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>13</v>
       </c>
-      <c r="B40">
-        <v>1718.6205134391701</v>
-      </c>
-      <c r="C40">
-        <v>1222.6207254640699</v>
-      </c>
-      <c r="D40">
-        <v>1619.4565713331101</v>
+      <c r="B40" s="1">
+        <v>1443.9439627230099</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1333.2080803215499</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1008.3052199408399</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1818.1103699207299</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="4"/>
-        <v>25.621897810316572</v>
+        <f>SUM(A40:K40)/178</f>
+        <v>31.553750746663649</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="5"/>
-        <v>8.5406326034388584</v>
+        <f>AVERAGE(A40:K40)/178</f>
+        <v>6.3107501493327298</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4745237353238847</v>
+        <f>STDEV(A40:K40)/178</f>
+        <v>3.8470075813841351</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
-        <v>5.8575602936406556E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.5282276112768433E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>14</v>
       </c>
-      <c r="B41">
-        <v>694.19282515719499</v>
-      </c>
-      <c r="C41">
-        <v>607.24706109613101</v>
-      </c>
-      <c r="D41">
-        <v>473.454392135143</v>
+      <c r="B41" s="1">
+        <v>613.90064973011602</v>
+      </c>
+      <c r="C41" s="1">
+        <v>155.97183207422401</v>
+      </c>
+      <c r="D41" s="1">
+        <v>128.448026325553</v>
+      </c>
+      <c r="E41" s="1">
+        <v>873.76653838157597</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="4"/>
-        <v>9.971316170721737</v>
+        <f>SUM(A41:K41)/178</f>
+        <v>10.03419689051387</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3237720569072455</v>
+        <f>AVERAGE(A41:K41)/178</f>
+        <v>2.0068393781027742</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="6"/>
-        <v>0.62468904004790526</v>
+        <f>STDEV(A41:K41)/178</f>
+        <v>2.0705556953016364</v>
       </c>
       <c r="O41">
-        <f t="shared" si="7"/>
-        <v>2.4815834626448793E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>8.2253032189450216E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>15</v>
       </c>
-      <c r="B42">
-        <v>288.57476109266202</v>
-      </c>
-      <c r="C42">
-        <v>213.105178885161</v>
-      </c>
-      <c r="D42">
-        <v>266.19376361370001</v>
+      <c r="B42" s="1">
+        <v>181.61121764406499</v>
+      </c>
+      <c r="C42" s="1">
+        <v>227.38180747255601</v>
+      </c>
+      <c r="D42" s="1">
+        <v>101.147577166557</v>
+      </c>
+      <c r="E42" s="1">
+        <v>304.35028636455502</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3138972111883316</v>
+        <f>SUM(A42:K42)/178</f>
+        <v>4.660061172178275</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4379657370627772</v>
+        <f>AVERAGE(A42:K42)/178</f>
+        <v>0.93201223443565506</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="6"/>
-        <v>0.21776415184807266</v>
+        <f>STDEV(A42:K42)/178</f>
+        <v>0.62910702757765036</v>
       </c>
       <c r="O42">
-        <f t="shared" si="7"/>
-        <v>8.6507027230960229E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>2.4991339623161176E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>16</v>
       </c>
-      <c r="B43">
-        <v>119.550189755856</v>
-      </c>
-      <c r="C43">
-        <v>74.885196167975593</v>
-      </c>
-      <c r="D43">
-        <v>110.50970784947199</v>
+      <c r="B43" s="1">
+        <v>-121.55514027178199</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.2369660791009602</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-78.946132519282003</v>
+      </c>
+      <c r="E43" s="1">
+        <v>80.473583023995104</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7131746841196831</v>
+        <f>SUM(A43:K43)/178</f>
+        <v>-0.56062204319083109</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57105822803989437</v>
+        <f>AVERAGE(A43:K43)/178</f>
+        <v>-0.11212440863816621</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13266434526129947</v>
+        <f>STDEV(A43:K43)/178</f>
+        <v>0.45089699789972459</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
-        <v>5.2701043907830492E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>1.791192836132313E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>17</v>
       </c>
-      <c r="B44">
-        <v>18.305841855704699</v>
-      </c>
-      <c r="C44">
-        <v>11.117519123014</v>
-      </c>
-      <c r="D44">
-        <v>-19.744796041399201</v>
+      <c r="B44" s="1">
+        <v>-52.967460975050898</v>
+      </c>
+      <c r="C44" s="1">
+        <v>92.112598188221398</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35.531208470463703</v>
+      </c>
+      <c r="E44" s="1">
+        <v>50.440440986305397</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="4"/>
-        <v>5.4373960322019646E-2</v>
+        <f>SUM(A44:K44)/178</f>
+        <v>0.79840891387606505</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="5"/>
-        <v>1.8124653440673214E-2</v>
+        <f>AVERAGE(A44:K44)/178</f>
+        <v>0.159681782775213</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="6"/>
-        <v>0.11357038414104353</v>
+        <f>STDEV(A44:K44)/178</f>
+        <v>0.29921402266966352</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
-        <v>4.511594874611967E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>1.1886306991900249E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>18</v>
       </c>
-      <c r="B45">
-        <v>36.6061861440539</v>
-      </c>
-      <c r="C45">
-        <v>39.155731972306903</v>
-      </c>
-      <c r="D45">
-        <v>-44.910560414194997</v>
+      <c r="B45" s="1">
+        <v>48.439120624214397</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-24.150371581315898</v>
+      </c>
+      <c r="D45" s="1">
+        <v>21.9521863088011</v>
+      </c>
+      <c r="E45" s="1">
+        <v>14.437113160267399</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17332223428183038</v>
+        <f>SUM(A45:K45)/178</f>
+        <v>0.44201150849419668</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="5"/>
-        <v>5.7774078093943464E-2</v>
+        <f>AVERAGE(A45:K45)/178</f>
+        <v>8.8402301698839322E-2</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="6"/>
-        <v>0.26863315464069959</v>
+        <f>STDEV(A45:K45)/178</f>
+        <v>0.14611792857601241</v>
       </c>
       <c r="O45">
-        <f t="shared" si="7"/>
-        <v>1.0671478949324333E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>5.8045493342151673E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>19</v>
       </c>
-      <c r="B46">
-        <v>-7.51529988646507</v>
-      </c>
-      <c r="C46">
-        <v>-8.78453789651393</v>
-      </c>
-      <c r="D46">
-        <v>-75.649303607642594</v>
+      <c r="B46" s="1">
+        <v>39.775135267525897</v>
+      </c>
+      <c r="C46" s="1">
+        <v>46.412566155195201</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-20.170777980238199</v>
+      </c>
+      <c r="E46" s="1">
+        <v>49.480807352811098</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.51656821005967191</v>
+        <f>SUM(A46:K46)/178</f>
+        <v>0.75560522918704487</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.17218940335322397</v>
+        <f>AVERAGE(A46:K46)/178</f>
+        <v>0.15112104583740898</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="6"/>
-        <v>0.21896603827885561</v>
+        <f>STDEV(A46:K46)/178</f>
+        <v>0.16220469913834626</v>
       </c>
       <c r="O46">
-        <f t="shared" si="7"/>
-        <v>8.698447781827636E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6.4435979045532788E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50">
+        <f>SUM(A27:A46)</f>
+        <v>190</v>
+      </c>
+      <c r="C50">
         <f>SUM(B27:B46)</f>
-        <v>184668.87648280291</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:D50" si="8">SUM(C27:C46)</f>
-        <v>190619.06603883501</v>
+        <v>188805.48054185827</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
-        <v>187747.95895344127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <f>SUM(C27:C46)</f>
+        <v>179869.5676103211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51">
+        <f>SUM(A3:A22)</f>
+        <v>190</v>
+      </c>
+      <c r="C51">
         <f>SUM(B3:B22)</f>
-        <v>181909</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:D51" si="9">SUM(C3:C22)</f>
-        <v>191640</v>
+        <v>188139</v>
       </c>
       <c r="D51">
-        <f t="shared" si="9"/>
-        <v>188078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <f>SUM(C3:C22)</f>
+        <v>178609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52">
         <f>B50-B51</f>
-        <v>2759.8764828029089</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="10">C50-C51</f>
-        <v>-1020.9339611649921</v>
+        <f t="shared" ref="C52:D52" si="2">C50-C51</f>
+        <v>666.48054185826913</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
-        <v>-330.0410465587338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1260.5676103211008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53">
         <f>B52/B51</f>
-        <v>1.5171742370102133E-2</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="11">C52/C51</f>
-        <v>-5.3273531682581513E-3</v>
+        <f t="shared" ref="C53:D53" si="3">C52/C51</f>
+        <v>3.5424900837055006E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
-        <v>-1.7548094224669223E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>7.0576936790480924E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54">
         <f>(B50-B51)^2/B51</f>
-        <v>41.87213497038934</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="12">(C50-C51)^2/C51</f>
-        <v>5.4388757725946641</v>
+        <f t="shared" ref="C54:D54" si="4">(C50-C51)^2/C51</f>
+        <v>2.361000710515587</v>
       </c>
       <c r="D54">
-        <f t="shared" si="12"/>
-        <v>0.5791591383021103</v>
+        <f t="shared" si="4"/>
+        <v>8.8967000553759927</v>
       </c>
     </row>
   </sheetData>
@@ -3438,6 +3572,7 @@
     <mergeCell ref="L25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/csv_files/2d_3z/target_vs_output.xlsx
+++ b/csv_files/2d_3z/target_vs_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EA3E8-6A2A-4D61-898B-61EB91F9DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26337D3-D9DD-4DCD-8B32-682209FD953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Std/sqrt(2)</t>
-  </si>
-  <si>
     <t>Nout</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>chisquare</t>
+  </si>
+  <si>
+    <t>Std/sqrt(3)</t>
   </si>
 </sst>
 </file>
@@ -182,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,7 +195,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,58 +322,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2463264092788362E-3</c:v>
+                    <c:v>1.0176212518960995E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8457460925424701E-2</c:v>
+                    <c:v>3.1400385356770893E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13561756220720031</c:v>
+                    <c:v>0.11073127585593226</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23521176981098146</c:v>
+                    <c:v>0.19204960584462571</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.29132256368558368</c:v>
+                    <c:v>0.23786387719637883</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29581479959822438</c:v>
+                    <c:v>0.24153177245977067</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.25773864321208056</c:v>
+                    <c:v>0.21044272095561484</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20114423959498051</c:v>
+                    <c:v>0.16423358390260895</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.1403216746523879</c:v>
+                    <c:v>0.11457216758372751</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.0318019833114965E-2</c:v>
+                    <c:v>7.3744354389900929E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.1753657822415512E-2</c:v>
+                    <c:v>4.2256684662505734E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2.6303455185740964E-2</c:v>
+                    <c:v>2.1476681225743168E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3164206333305768E-2</c:v>
+                    <c:v>1.0748529461771277E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>5.2271645297753098E-3</c:v>
+                    <c:v>4.2679619665082257E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.6435268823217805E-3</c:v>
+                    <c:v>1.3419340800785392E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.519515564849551E-4</c:v>
+                    <c:v>2.8736724252215732E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.5185723675949258E-4</c:v>
+                    <c:v>1.2399091460325791E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.7965218369849395E-4</c:v>
+                    <c:v>1.4668539374602008E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -388,61 +388,61 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2463264092788362E-3</c:v>
+                    <c:v>1.0176212518960995E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8457460925424701E-2</c:v>
+                    <c:v>3.1400385356770893E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.13561756220720031</c:v>
+                    <c:v>0.11073127585593226</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.23521176981098146</c:v>
+                    <c:v>0.19204960584462571</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.29132256368558368</c:v>
+                    <c:v>0.23786387719637883</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29581479959822438</c:v>
+                    <c:v>0.24153177245977067</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.25773864321208056</c:v>
+                    <c:v>0.21044272095561484</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.20114423959498051</c:v>
+                    <c:v>0.16423358390260895</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.1403216746523879</c:v>
+                    <c:v>0.11457216758372751</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.0318019833114965E-2</c:v>
+                    <c:v>7.3744354389900929E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.1753657822415512E-2</c:v>
+                    <c:v>4.2256684662505734E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2.6303455185740964E-2</c:v>
+                    <c:v>2.1476681225743168E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3164206333305768E-2</c:v>
+                    <c:v>1.0748529461771277E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>5.2271645297753098E-3</c:v>
+                    <c:v>4.2679619665082257E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.6435268823217805E-3</c:v>
+                    <c:v>1.3419340800785392E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.519515564849551E-4</c:v>
+                    <c:v>2.8736724252215732E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.5185723675949258E-4</c:v>
+                    <c:v>1.2399091460325791E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.7965218369849395E-4</c:v>
+                    <c:v>1.4668539374602008E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.8963286057063251E-4</c:v>
+                    <c:v>1.5483458228746566E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -563,64 +563,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2.0501021030558471E-3</c:v>
+                    <c:v>1.6739013576978399E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.5815820011673836E-4</c:v>
+                    <c:v>7.8233289438318096E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6291097199800587E-2</c:v>
+                    <c:v>2.9631556781752957E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12663850809296093</c:v>
+                    <c:v>0.10339990887169077</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.22712352272691824</c:v>
+                    <c:v>0.18544557975478945</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.28640159078475541</c:v>
+                    <c:v>0.23384591964801454</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29940452140730633</c:v>
+                    <c:v>0.24446276804336783</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26531189288068108</c:v>
+                    <c:v>0.21662625341653924</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21194988933086659</c:v>
+                    <c:v>0.17305635996666249</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.15300958074728896</c:v>
+                    <c:v>0.12493179952934627</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.7428475773204265E-2</c:v>
+                    <c:v>7.955001735382107E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.7419393363267242E-2</c:v>
+                    <c:v>4.688273836005187E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.0500794314217951E-2</c:v>
+                    <c:v>2.4903794273138789E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.5282276112768433E-2</c:v>
+                    <c:v>1.2477926194868887E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.2253032189450216E-3</c:v>
+                    <c:v>6.7159319553624303E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.4991339623161176E-3</c:v>
+                    <c:v>2.0405343355114707E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.791192836132313E-3</c:v>
+                    <c:v>1.4625028264842702E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1886306991900249E-3</c:v>
+                    <c:v>9.7051290187438776E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>5.8045493342151673E-4</c:v>
+                    <c:v>4.7393946852129933E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>6.4435979045532788E-4</c:v>
+                    <c:v>5.2611756579408128E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -632,64 +632,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>2.0501021030558471E-3</c:v>
+                    <c:v>1.6739013576978399E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.5815820011673836E-4</c:v>
+                    <c:v>7.8233289438318096E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6291097199800587E-2</c:v>
+                    <c:v>2.9631556781752957E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12663850809296093</c:v>
+                    <c:v>0.10339990887169077</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.22712352272691824</c:v>
+                    <c:v>0.18544557975478945</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.28640159078475541</c:v>
+                    <c:v>0.23384591964801454</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.29940452140730633</c:v>
+                    <c:v>0.24446276804336783</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.26531189288068108</c:v>
+                    <c:v>0.21662625341653924</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.21194988933086659</c:v>
+                    <c:v>0.17305635996666249</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.15300958074728896</c:v>
+                    <c:v>0.12493179952934627</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>9.7428475773204265E-2</c:v>
+                    <c:v>7.955001735382107E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.7419393363267242E-2</c:v>
+                    <c:v>4.688273836005187E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.0500794314217951E-2</c:v>
+                    <c:v>2.4903794273138789E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.5282276112768433E-2</c:v>
+                    <c:v>1.2477926194868887E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.2253032189450216E-3</c:v>
+                    <c:v>6.7159319553624303E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.4991339623161176E-3</c:v>
+                    <c:v>2.0405343355114707E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.791192836132313E-3</c:v>
+                    <c:v>1.4625028264842702E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1886306991900249E-3</c:v>
+                    <c:v>9.7051290187438776E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>5.8045493342151673E-4</c:v>
+                    <c:v>4.7393946852129933E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>6.4435979045532788E-4</c:v>
+                    <c:v>5.2611756579408128E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,25 +2062,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2096,7 +2096,7 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2127,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(A3:K3)/178</f>
+        <f t="shared" ref="L3:L22" si="0">SUM(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>AVERAGE(A3:K3)/178</f>
+        <f t="shared" ref="M3:M22" si="1">AVERAGE(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>STDEV(A3:K3)/178</f>
+        <f t="shared" ref="N3:N22" si="2">STDEV(A3:K3)/178</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(2)/178</f>
+        <f>N3/SQRT(3)/178</f>
         <v>0</v>
       </c>
     </row>
@@ -2160,20 +2160,20 @@
         <v>115</v>
       </c>
       <c r="L4" s="1">
-        <f>SUM(A4:K4)/178</f>
+        <f t="shared" si="0"/>
         <v>2.8146067415730336</v>
       </c>
       <c r="M4" s="1">
-        <f>AVERAGE(A4:K4)/178</f>
+        <f t="shared" si="1"/>
         <v>0.56292134831460672</v>
       </c>
       <c r="N4" s="1">
-        <f>STDEV(A4:K4)/178</f>
+        <f t="shared" si="2"/>
         <v>0.31373776458396863</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O22" si="0">N4/SQRT(2)/178</f>
-        <v>1.2463264092788362E-3</v>
+        <f t="shared" ref="O4:O22" si="3">N4/SQRT(3)/178</f>
+        <v>1.0176212518960995E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2193,20 +2193,20 @@
         <v>3748</v>
       </c>
       <c r="L5" s="1">
-        <f>SUM(A5:K5)/178</f>
+        <f t="shared" si="0"/>
         <v>86.522471910112358</v>
       </c>
       <c r="M5" s="1">
-        <f>AVERAGE(A5:K5)/178</f>
+        <f t="shared" si="1"/>
         <v>17.304494382022472</v>
       </c>
       <c r="N5" s="1">
-        <f>STDEV(A5:K5)/178</f>
+        <f t="shared" si="2"/>
         <v>9.680897181100077</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>3.8457460925424701E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1400385356770893E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2226,20 +2226,20 @@
         <v>12789</v>
       </c>
       <c r="L6" s="1">
-        <f>SUM(A6:K6)/178</f>
+        <f t="shared" si="0"/>
         <v>304.53932584269666</v>
       </c>
       <c r="M6" s="1">
-        <f>AVERAGE(A6:K6)/178</f>
+        <f t="shared" si="1"/>
         <v>60.907865168539331</v>
       </c>
       <c r="N6" s="1">
-        <f>STDEV(A6:K6)/178</f>
+        <f t="shared" si="2"/>
         <v>34.139010846953127</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.13561756220720031</v>
+        <f t="shared" si="3"/>
+        <v>0.11073127585593226</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2259,20 +2259,20 @@
         <v>22287</v>
       </c>
       <c r="L7" s="1">
-        <f>SUM(A7:K7)/178</f>
+        <f t="shared" si="0"/>
         <v>528.20224719101122</v>
       </c>
       <c r="M7" s="1">
-        <f>AVERAGE(A7:K7)/178</f>
+        <f t="shared" si="1"/>
         <v>105.64044943820225</v>
       </c>
       <c r="N7" s="1">
-        <f>STDEV(A7:K7)/178</f>
+        <f t="shared" si="2"/>
         <v>59.209862131571398</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0.23521176981098146</v>
+        <f t="shared" si="3"/>
+        <v>0.19204960584462571</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2292,20 +2292,20 @@
         <v>27577</v>
       </c>
       <c r="L8" s="1">
-        <f>SUM(A8:K8)/178</f>
+        <f t="shared" si="0"/>
         <v>654.04494382022472</v>
       </c>
       <c r="M8" s="1">
-        <f>AVERAGE(A8:K8)/178</f>
+        <f t="shared" si="1"/>
         <v>130.80898876404495</v>
       </c>
       <c r="N8" s="1">
-        <f>STDEV(A8:K8)/178</f>
+        <f t="shared" si="2"/>
         <v>73.334633064922485</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0.29132256368558368</v>
+        <f t="shared" si="3"/>
+        <v>0.23786387719637883</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2325,20 +2325,20 @@
         <v>28604</v>
       </c>
       <c r="L9" s="1">
-        <f>SUM(A9:K9)/178</f>
+        <f t="shared" si="0"/>
         <v>665.13483146067415</v>
       </c>
       <c r="M9" s="1">
-        <f>AVERAGE(A9:K9)/178</f>
+        <f t="shared" si="1"/>
         <v>133.02696629213483</v>
       </c>
       <c r="N9" s="1">
-        <f>STDEV(A9:K9)/178</f>
+        <f t="shared" si="2"/>
         <v>74.465463674562884</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0.29581479959822438</v>
+        <f t="shared" si="3"/>
+        <v>0.24153177245977067</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2358,20 +2358,20 @@
         <v>24661</v>
       </c>
       <c r="L10" s="1">
-        <f>SUM(A10:K10)/178</f>
+        <f t="shared" si="0"/>
         <v>578.76404494382018</v>
       </c>
       <c r="M10" s="1">
-        <f>AVERAGE(A10:K10)/178</f>
+        <f t="shared" si="1"/>
         <v>115.75280898876404</v>
       </c>
       <c r="N10" s="1">
-        <f>STDEV(A10:K10)/178</f>
+        <f t="shared" si="2"/>
         <v>64.880552290513293</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0.25773864321208056</v>
+        <f t="shared" si="3"/>
+        <v>0.21044272095561484</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2391,20 +2391,20 @@
         <v>19857</v>
       </c>
       <c r="L11" s="1">
-        <f>SUM(A11:K11)/178</f>
+        <f t="shared" si="0"/>
         <v>451.58988764044943</v>
       </c>
       <c r="M11" s="1">
-        <f>AVERAGE(A11:K11)/178</f>
+        <f t="shared" si="1"/>
         <v>90.317977528089884</v>
       </c>
       <c r="N11" s="1">
-        <f>STDEV(A11:K11)/178</f>
+        <f t="shared" si="2"/>
         <v>50.634042269863173</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0.20114423959498051</v>
+        <f t="shared" si="3"/>
+        <v>0.16423358390260895</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2424,20 +2424,20 @@
         <v>13852</v>
       </c>
       <c r="L12" s="1">
-        <f>SUM(A12:K12)/178</f>
+        <f t="shared" si="0"/>
         <v>314.03370786516854</v>
       </c>
       <c r="M12" s="1">
-        <f>AVERAGE(A12:K12)/178</f>
+        <f t="shared" si="1"/>
         <v>62.806741573033712</v>
       </c>
       <c r="N12" s="1">
-        <f>STDEV(A12:K12)/178</f>
+        <f t="shared" si="2"/>
         <v>35.323177139119529</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0.1403216746523879</v>
+        <f t="shared" si="3"/>
+        <v>0.11457216758372751</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2457,20 +2457,20 @@
         <v>9056</v>
       </c>
       <c r="L13" s="1">
-        <f>SUM(A13:K13)/178</f>
+        <f t="shared" si="0"/>
         <v>201.22471910112358</v>
       </c>
       <c r="M13" s="1">
-        <f>AVERAGE(A13:K13)/178</f>
+        <f t="shared" si="1"/>
         <v>40.244943820224719</v>
       </c>
       <c r="N13" s="1">
-        <f>STDEV(A13:K13)/178</f>
+        <f t="shared" si="2"/>
         <v>22.735756406291863</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
-        <v>9.0318019833114965E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.3744354389900929E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2490,20 +2490,20 @@
         <v>5215</v>
       </c>
       <c r="L14" s="1">
-        <f>SUM(A14:K14)/178</f>
+        <f t="shared" si="0"/>
         <v>113.71348314606742</v>
       </c>
       <c r="M14" s="1">
-        <f>AVERAGE(A14:K14)/178</f>
+        <f t="shared" si="1"/>
         <v>22.742696629213484</v>
       </c>
       <c r="N14" s="1">
-        <f>STDEV(A14:K14)/178</f>
+        <f t="shared" si="2"/>
         <v>13.027949013488007</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>5.1753657822415512E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2256684662505734E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2523,20 +2523,20 @@
         <v>2576</v>
       </c>
       <c r="L15" s="1">
-        <f>SUM(A15:K15)/178</f>
+        <f t="shared" si="0"/>
         <v>57.196629213483149</v>
       </c>
       <c r="M15" s="1">
-        <f>AVERAGE(A15:K15)/178</f>
+        <f t="shared" si="1"/>
         <v>11.439325842696629</v>
       </c>
       <c r="N15" s="1">
-        <f>STDEV(A15:K15)/178</f>
+        <f t="shared" si="2"/>
         <v>6.6213691448487078</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
-        <v>2.6303455185740964E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1476681225743168E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2556,20 +2556,20 @@
         <v>1249</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM(A16:K16)/178</f>
+        <f t="shared" si="0"/>
         <v>28.00561797752809</v>
       </c>
       <c r="M16" s="1">
-        <f>AVERAGE(A16:K16)/178</f>
+        <f t="shared" si="1"/>
         <v>5.6011235955056176</v>
       </c>
       <c r="N16" s="1">
-        <f>STDEV(A16:K16)/178</f>
+        <f t="shared" si="2"/>
         <v>3.3138258459301082</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
-        <v>1.3164206333305768E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0748529461771277E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2589,20 +2589,20 @@
         <v>496</v>
       </c>
       <c r="L17" s="1">
-        <f>SUM(A17:K17)/178</f>
+        <f t="shared" si="0"/>
         <v>11.303370786516854</v>
       </c>
       <c r="M17" s="1">
-        <f>AVERAGE(A17:K17)/178</f>
+        <f t="shared" si="1"/>
         <v>2.2606741573033706</v>
       </c>
       <c r="N17" s="1">
-        <f>STDEV(A17:K17)/178</f>
+        <f t="shared" si="2"/>
         <v>1.3158342007959609</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
-        <v>5.2271645297753098E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.2679619665082257E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2622,20 +2622,20 @@
         <v>168</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(A18:K18)/178</f>
+        <f t="shared" si="0"/>
         <v>3.5505617977528088</v>
       </c>
       <c r="M18" s="1">
-        <f>AVERAGE(A18:K18)/178</f>
+        <f t="shared" si="1"/>
         <v>0.71011235955056184</v>
       </c>
       <c r="N18" s="1">
-        <f>STDEV(A18:K18)/178</f>
+        <f t="shared" si="2"/>
         <v>0.41372504526455328</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
-        <v>1.6435268823217805E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.3419340800785392E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2655,20 +2655,20 @@
         <v>31</v>
       </c>
       <c r="L19" s="1">
-        <f>SUM(A19:K19)/178</f>
+        <f t="shared" si="0"/>
         <v>0.93258426966292129</v>
       </c>
       <c r="M19" s="1">
-        <f>AVERAGE(A19:K19)/178</f>
+        <f t="shared" si="1"/>
         <v>0.1865168539325843</v>
       </c>
       <c r="N19" s="1">
-        <f>STDEV(A19:K19)/178</f>
+        <f t="shared" si="2"/>
         <v>8.8596770277323225E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
-        <v>3.519515564849551E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.8736724252215732E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2688,20 +2688,20 @@
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f>SUM(A20:K20)/178</f>
+        <f t="shared" si="0"/>
         <v>0.20786516853932585</v>
       </c>
       <c r="M20" s="1">
-        <f>AVERAGE(A20:K20)/178</f>
+        <f t="shared" si="1"/>
         <v>4.1573033707865172E-2</v>
       </c>
       <c r="N20" s="1">
-        <f>STDEV(A20:K20)/178</f>
+        <f t="shared" si="2"/>
         <v>3.8227024351020225E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
-        <v>1.5185723675949258E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.2399091460325791E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2721,20 +2721,20 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f>SUM(A21:K21)/178</f>
+        <f t="shared" si="0"/>
         <v>0.10112359550561797</v>
       </c>
       <c r="M21" s="1">
-        <f>AVERAGE(A21:K21)/178</f>
+        <f t="shared" si="1"/>
         <v>2.0224719101123598E-2</v>
       </c>
       <c r="N21" s="1">
-        <f>STDEV(A21:K21)/178</f>
+        <f t="shared" si="2"/>
         <v>4.5223846735950798E-2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
-        <v>1.7965218369849395E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.4668539374602008E-4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2754,42 +2754,42 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(A22:K22)/178</f>
+        <f t="shared" si="0"/>
         <v>0.10674157303370786</v>
       </c>
       <c r="M22" s="1">
-        <f>AVERAGE(A22:K22)/178</f>
+        <f t="shared" si="1"/>
         <v>2.134831460674157E-2</v>
       </c>
       <c r="N22" s="1">
-        <f>STDEV(A22:K22)/178</f>
+        <f t="shared" si="2"/>
         <v>4.7736282665725847E-2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
-        <v>1.8963286057063251E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.5483458228746566E-4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2805,7 +2805,7 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="2"/>
       <c r="L26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2836,20 +2836,20 @@
         <v>-13.151638176292099</v>
       </c>
       <c r="L27" s="1">
-        <f>SUM(A27:K27)/178</f>
+        <f t="shared" ref="L27:L46" si="4">SUM(A27:K27)/178</f>
         <v>1.1783885624720125</v>
       </c>
       <c r="M27" s="1">
-        <f>AVERAGE(A27:K27)/178</f>
+        <f t="shared" ref="M27:M46" si="5">AVERAGE(A27:K27)/178</f>
         <v>0.23567771249440253</v>
       </c>
       <c r="N27" s="1">
-        <f>STDEV(A27:K27)/178</f>
+        <f t="shared" ref="N27:N46" si="6">STDEV(A27:K27)/178</f>
         <v>0.51607223131363067</v>
       </c>
       <c r="O27">
-        <f>N27/SQRT(2)/178</f>
-        <v>2.0501021030558471E-3</v>
+        <f>N27/SQRT(3)/178</f>
+        <v>1.6739013576978399E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2869,20 +2869,20 @@
         <v>76.905647434294195</v>
       </c>
       <c r="L28" s="1">
-        <f>SUM(A28:K28)/178</f>
+        <f t="shared" si="4"/>
         <v>1.7901581538987572</v>
       </c>
       <c r="M28" s="1">
-        <f>AVERAGE(A28:K28)/178</f>
+        <f t="shared" si="5"/>
         <v>0.35803163077975142</v>
       </c>
       <c r="N28" s="1">
-        <f>STDEV(A28:K28)/178</f>
+        <f t="shared" si="6"/>
         <v>0.24119717722772724</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O46" si="1">N28/SQRT(2)/178</f>
-        <v>9.5815820011673836E-4</v>
+        <f t="shared" ref="O28:O46" si="7">N28/SQRT(3)/178</f>
+        <v>7.8233289438318096E-4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2902,20 +2902,20 @@
         <v>3185.1321063041601</v>
       </c>
       <c r="L29" s="1">
-        <f>SUM(A29:K29)/178</f>
+        <f t="shared" si="4"/>
         <v>80.485756827204256</v>
       </c>
       <c r="M29" s="1">
-        <f>AVERAGE(A29:K29)/178</f>
+        <f t="shared" si="5"/>
         <v>16.097151365440855</v>
       </c>
       <c r="N29" s="1">
-        <f>STDEV(A29:K29)/178</f>
+        <f t="shared" si="6"/>
         <v>9.1355584098977687</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
-        <v>3.6291097199800587E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9631556781752957E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2935,20 +2935,20 @@
         <v>11773.4354486465</v>
       </c>
       <c r="L30" s="1">
-        <f>SUM(A30:K30)/178</f>
+        <f t="shared" si="4"/>
         <v>284.09644625160001</v>
       </c>
       <c r="M30" s="1">
-        <f>AVERAGE(A30:K30)/178</f>
+        <f t="shared" si="5"/>
         <v>56.819289250319997</v>
       </c>
       <c r="N30" s="1">
-        <f>STDEV(A30:K30)/178</f>
+        <f t="shared" si="6"/>
         <v>31.878713428149336</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>0.12663850809296093</v>
+        <f t="shared" si="7"/>
+        <v>0.10339990887169077</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2968,20 +2968,20 @@
         <v>21193.680313110301</v>
       </c>
       <c r="L31" s="1">
-        <f>SUM(A31:K31)/178</f>
+        <f t="shared" si="4"/>
         <v>509.46265423163823</v>
       </c>
       <c r="M31" s="1">
-        <f>AVERAGE(A31:K31)/178</f>
+        <f t="shared" si="5"/>
         <v>101.89253084632765</v>
       </c>
       <c r="N31" s="1">
-        <f>STDEV(A31:K31)/178</f>
+        <f t="shared" si="6"/>
         <v>57.173807579036378</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
-        <v>0.22712352272691824</v>
+        <f t="shared" si="7"/>
+        <v>0.18544557975478945</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3001,20 +3001,20 @@
         <v>27226.152484892998</v>
       </c>
       <c r="L32" s="1">
-        <f>SUM(A32:K32)/178</f>
+        <f t="shared" si="4"/>
         <v>643.5051501520511</v>
       </c>
       <c r="M32" s="1">
-        <f>AVERAGE(A32:K32)/178</f>
+        <f t="shared" si="5"/>
         <v>128.70103003041021</v>
       </c>
       <c r="N32" s="1">
-        <f>STDEV(A32:K32)/178</f>
+        <f t="shared" si="6"/>
         <v>72.095876487199405</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0.28640159078475541</v>
+        <f t="shared" si="7"/>
+        <v>0.23384591964801454</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3034,20 +3034,20 @@
         <v>28569.1543197631</v>
       </c>
       <c r="L33" s="1">
-        <f>SUM(A33:K33)/178</f>
+        <f t="shared" si="4"/>
         <v>672.72330561648425</v>
       </c>
       <c r="M33" s="1">
-        <f>AVERAGE(A33:K33)/178</f>
+        <f t="shared" si="5"/>
         <v>134.54466112329686</v>
       </c>
       <c r="N33" s="1">
-        <f>STDEV(A33:K33)/178</f>
+        <f t="shared" si="6"/>
         <v>75.369104396186827</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>0.29940452140730633</v>
+        <f t="shared" si="7"/>
+        <v>0.24446276804336783</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,20 +3067,20 @@
         <v>26081.205297469998</v>
       </c>
       <c r="L34" s="1">
-        <f>SUM(A34:K34)/178</f>
+        <f t="shared" si="4"/>
         <v>595.28797648997647</v>
       </c>
       <c r="M34" s="1">
-        <f>AVERAGE(A34:K34)/178</f>
+        <f t="shared" si="5"/>
         <v>119.05759529799528</v>
       </c>
       <c r="N34" s="1">
-        <f>STDEV(A34:K34)/178</f>
+        <f t="shared" si="6"/>
         <v>66.786966536391191</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>0.26531189288068108</v>
+        <f t="shared" si="7"/>
+        <v>0.21662625341653924</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -3100,20 +3100,20 @@
         <v>21329.195959091099</v>
       </c>
       <c r="L35" s="1">
-        <f>SUM(A35:K35)/178</f>
+        <f t="shared" si="4"/>
         <v>475.45808542980114</v>
       </c>
       <c r="M35" s="1">
-        <f>AVERAGE(A35:K35)/178</f>
+        <f t="shared" si="5"/>
         <v>95.091617085960223</v>
       </c>
       <c r="N35" s="1">
-        <f>STDEV(A35:K35)/178</f>
+        <f t="shared" si="6"/>
         <v>53.354148630263481</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
-        <v>0.21194988933086659</v>
+        <f t="shared" si="7"/>
+        <v>0.17305635996666249</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3133,20 +3133,20 @@
         <v>15628.969193458501</v>
       </c>
       <c r="L36" s="1">
-        <f>SUM(A36:K36)/178</f>
+        <f t="shared" si="4"/>
         <v>343.25687136542751</v>
       </c>
       <c r="M36" s="1">
-        <f>AVERAGE(A36:K36)/178</f>
+        <f t="shared" si="5"/>
         <v>68.651374273085509</v>
       </c>
       <c r="N36" s="1">
-        <f>STDEV(A36:K36)/178</f>
+        <f t="shared" si="6"/>
         <v>38.517103919319034</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>0.15300958074728896</v>
+        <f t="shared" si="7"/>
+        <v>0.12493179952934627</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3166,20 +3166,20 @@
         <v>10568.309816360401</v>
       </c>
       <c r="L37" s="1">
-        <f>SUM(A37:K37)/178</f>
+        <f t="shared" si="4"/>
         <v>211.12140171413913</v>
       </c>
       <c r="M37" s="1">
-        <f>AVERAGE(A37:K37)/178</f>
+        <f t="shared" si="5"/>
         <v>42.224280342827825</v>
       </c>
       <c r="N37" s="1">
-        <f>STDEV(A37:K37)/178</f>
+        <f t="shared" si="6"/>
         <v>24.52567158036511</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>9.7428475773204265E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.955001735382107E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3199,20 +3199,20 @@
         <v>6300.6170301437296</v>
       </c>
       <c r="L38" s="1">
-        <f>SUM(A38:K38)/178</f>
+        <f t="shared" si="4"/>
         <v>121.40687797515741</v>
       </c>
       <c r="M38" s="1">
-        <f>AVERAGE(A38:K38)/178</f>
+        <f t="shared" si="5"/>
         <v>24.281375595031481</v>
       </c>
       <c r="N38" s="1">
-        <f>STDEV(A38:K38)/178</f>
+        <f t="shared" si="6"/>
         <v>14.454184701087144</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
-        <v>5.7419393363267242E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.688273836005187E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3232,20 +3232,20 @@
         <v>3527.05419182777</v>
       </c>
       <c r="L39" s="1">
-        <f>SUM(A39:K39)/178</f>
+        <f t="shared" si="4"/>
         <v>58.078275624327638</v>
       </c>
       <c r="M39" s="1">
-        <f>AVERAGE(A39:K39)/178</f>
+        <f t="shared" si="5"/>
         <v>11.615655124865528</v>
       </c>
       <c r="N39" s="1">
-        <f>STDEV(A39:K39)/178</f>
+        <f t="shared" si="6"/>
         <v>7.6779653828528209</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
-        <v>3.0500794314217951E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.4903794273138789E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3265,20 +3265,20 @@
         <v>1818.1103699207299</v>
       </c>
       <c r="L40" s="1">
-        <f>SUM(A40:K40)/178</f>
+        <f t="shared" si="4"/>
         <v>31.553750746663649</v>
       </c>
       <c r="M40" s="1">
-        <f>AVERAGE(A40:K40)/178</f>
+        <f t="shared" si="5"/>
         <v>6.3107501493327298</v>
       </c>
       <c r="N40" s="1">
-        <f>STDEV(A40:K40)/178</f>
+        <f t="shared" si="6"/>
         <v>3.8470075813841351</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
-        <v>1.5282276112768433E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.2477926194868887E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3298,20 +3298,20 @@
         <v>873.76653838157597</v>
       </c>
       <c r="L41" s="1">
-        <f>SUM(A41:K41)/178</f>
+        <f t="shared" si="4"/>
         <v>10.03419689051387</v>
       </c>
       <c r="M41" s="1">
-        <f>AVERAGE(A41:K41)/178</f>
+        <f t="shared" si="5"/>
         <v>2.0068393781027742</v>
       </c>
       <c r="N41" s="1">
-        <f>STDEV(A41:K41)/178</f>
+        <f t="shared" si="6"/>
         <v>2.0705556953016364</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
-        <v>8.2253032189450216E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.7159319553624303E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3331,20 +3331,20 @@
         <v>304.35028636455502</v>
       </c>
       <c r="L42" s="1">
-        <f>SUM(A42:K42)/178</f>
+        <f t="shared" si="4"/>
         <v>4.660061172178275</v>
       </c>
       <c r="M42" s="1">
-        <f>AVERAGE(A42:K42)/178</f>
+        <f t="shared" si="5"/>
         <v>0.93201223443565506</v>
       </c>
       <c r="N42" s="1">
-        <f>STDEV(A42:K42)/178</f>
+        <f t="shared" si="6"/>
         <v>0.62910702757765036</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
-        <v>2.4991339623161176E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0405343355114707E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3364,20 +3364,20 @@
         <v>80.473583023995104</v>
       </c>
       <c r="L43" s="1">
-        <f>SUM(A43:K43)/178</f>
+        <f t="shared" si="4"/>
         <v>-0.56062204319083109</v>
       </c>
       <c r="M43" s="1">
-        <f>AVERAGE(A43:K43)/178</f>
+        <f t="shared" si="5"/>
         <v>-0.11212440863816621</v>
       </c>
       <c r="N43" s="1">
-        <f>STDEV(A43:K43)/178</f>
+        <f t="shared" si="6"/>
         <v>0.45089699789972459</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>1.791192836132313E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.4625028264842702E-3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3397,20 +3397,20 @@
         <v>50.440440986305397</v>
       </c>
       <c r="L44" s="1">
-        <f>SUM(A44:K44)/178</f>
+        <f t="shared" si="4"/>
         <v>0.79840891387606505</v>
       </c>
       <c r="M44" s="1">
-        <f>AVERAGE(A44:K44)/178</f>
+        <f t="shared" si="5"/>
         <v>0.159681782775213</v>
       </c>
       <c r="N44" s="1">
-        <f>STDEV(A44:K44)/178</f>
+        <f t="shared" si="6"/>
         <v>0.29921402266966352</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
-        <v>1.1886306991900249E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.7051290187438776E-4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,20 +3430,20 @@
         <v>14.437113160267399</v>
       </c>
       <c r="L45" s="1">
-        <f>SUM(A45:K45)/178</f>
+        <f t="shared" si="4"/>
         <v>0.44201150849419668</v>
       </c>
       <c r="M45" s="1">
-        <f>AVERAGE(A45:K45)/178</f>
+        <f t="shared" si="5"/>
         <v>8.8402301698839322E-2</v>
       </c>
       <c r="N45" s="1">
-        <f>STDEV(A45:K45)/178</f>
+        <f t="shared" si="6"/>
         <v>0.14611792857601241</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
-        <v>5.8045493342151673E-4</v>
+        <f t="shared" si="7"/>
+        <v>4.7393946852129933E-4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3463,105 +3463,125 @@
         <v>49.480807352811098</v>
       </c>
       <c r="L46" s="1">
-        <f>SUM(A46:K46)/178</f>
+        <f t="shared" si="4"/>
         <v>0.75560522918704487</v>
       </c>
       <c r="M46" s="1">
-        <f>AVERAGE(A46:K46)/178</f>
+        <f t="shared" si="5"/>
         <v>0.15112104583740898</v>
       </c>
       <c r="N46" s="1">
-        <f>STDEV(A46:K46)/178</f>
+        <f t="shared" si="6"/>
         <v>0.16220469913834626</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
-        <v>6.4435979045532788E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.2611756579408128E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <f>SUM(A27:A46)</f>
-        <v>190</v>
-      </c>
-      <c r="C50">
         <f>SUM(B27:B46)</f>
         <v>188805.48054185827</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <f>SUM(C27:C46)</f>
         <v>179869.5676103211</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>SUM(D27:D46)</f>
+        <v>172602.41996282214</v>
+      </c>
+      <c r="E50">
+        <f>SUM(E27:E46)</f>
+        <v>178637.71930951683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <f>SUM(A3:A22)</f>
-        <v>190</v>
-      </c>
-      <c r="C51">
         <f>SUM(B3:B22)</f>
         <v>188139</v>
       </c>
-      <c r="D51">
+      <c r="C51">
         <f>SUM(C3:C22)</f>
         <v>178609</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>SUM(D3:D22)</f>
+        <v>173132</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E3:E22)</f>
+        <v>172284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <f>B50-B51</f>
-        <v>0</v>
+        <v>666.48054185826913</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="2">C50-C51</f>
-        <v>666.48054185826913</v>
+        <f t="shared" ref="C52:D52" si="8">C50-C51</f>
+        <v>1260.5676103211008</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>1260.5676103211008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D50-D51</f>
+        <v>-529.5800371778605</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="9">E50-E51</f>
+        <v>6353.7193095168332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <f>B52/B51</f>
-        <v>0</v>
+        <v>3.5424900837055006E-3</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="3">C52/C51</f>
-        <v>3.5424900837055006E-3</v>
+        <f t="shared" ref="C53:D53" si="10">C52/C51</f>
+        <v>7.0576936790480924E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
-        <v>7.0576936790480924E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D52/D51</f>
+        <v>-3.0588223851042008E-3</v>
+      </c>
+      <c r="E53">
+        <f>E52/E51</f>
+        <v>3.6879334758403756E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <f>(B50-B51)^2/B51</f>
-        <v>0</v>
+        <v>2.361000710515587</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="4">(C50-C51)^2/C51</f>
-        <v>2.361000710515587</v>
+        <f t="shared" ref="C54:D54" si="11">(C50-C51)^2/C51</f>
+        <v>8.8967000553759927</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
-        <v>8.8967000553759927</v>
+        <f>(D50-D51)^2/D51</f>
+        <v>1.6198912724239547</v>
+      </c>
+      <c r="E54">
+        <f>(E50-E51)^2/E51</f>
+        <v>234.32094137660528</v>
       </c>
     </row>
   </sheetData>
